--- a/budget/budget_fr.xlsx
+++ b/budget/budget_fr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Table 1</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Dépenses pour évènements</t>
+  </si>
+  <si>
+    <t>Dépenses évènement: SSC statistical learning</t>
+  </si>
+  <si>
+    <t>Coûts de l’évènement</t>
+  </si>
+  <si>
+    <t>Locaux, nourriture, breuvages, speakers</t>
+  </si>
+  <si>
+    <t>Dépenses générales des évènements</t>
   </si>
   <si>
     <t>Machines virtuelles</t>
@@ -913,7 +925,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1086,6 +1098,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2246,7 +2261,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G39"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2467,7 +2482,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="45">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" ht="20.7" customHeight="1">
@@ -2481,7 +2496,7 @@
       <c r="F19" s="48"/>
       <c r="G19" s="49">
         <f>SUM(G16:G18)</f>
-        <v>1265</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" ht="20.7" customHeight="1">
@@ -2647,33 +2662,27 @@
     </row>
     <row r="32" ht="20.35" customHeight="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="30"/>
-      <c r="C32" t="s" s="31">
+      <c r="B32" t="s" s="52">
         <v>35</v>
       </c>
+      <c r="C32" s="32"/>
       <c r="D32" s="32"/>
-      <c r="E32" t="s" s="33">
-        <v>36</v>
-      </c>
-      <c r="F32" t="s" s="34">
-        <v>37</v>
-      </c>
-      <c r="G32" s="35">
-        <v>200</v>
-      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="35"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" t="s" s="54">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" t="s" s="38">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s" s="39">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G33" s="57">
         <v>1000</v>
@@ -2681,86 +2690,131 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" t="s" s="54">
+      <c r="B34" t="s" s="58">
+        <v>38</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="57"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" t="s" s="54">
+        <v>39</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" t="s" s="38">
         <v>40</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" t="s" s="38">
+      <c r="F35" t="s" s="39">
         <v>41</v>
       </c>
-      <c r="F34" t="s" s="39">
+      <c r="G35" s="57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" t="s" s="54">
+        <v>42</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" t="s" s="38">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="G36" s="57">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" t="s" s="54">
+        <v>44</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" t="s" s="38">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s" s="39">
         <v>17</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G37" s="57">
         <v>100</v>
       </c>
     </row>
-    <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="41"/>
-      <c r="C35" t="s" s="42">
-        <v>42</v>
-      </c>
-      <c r="D35" s="43"/>
-      <c r="E35" t="s" s="42">
-        <v>43</v>
-      </c>
-      <c r="F35" t="s" s="44">
+    <row r="38" ht="20.35" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="41"/>
+      <c r="C38" t="s" s="42">
+        <v>46</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" t="s" s="42">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s" s="44">
         <v>11</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G38" s="45">
         <v>300</v>
       </c>
     </row>
-    <row r="36" ht="20.7" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" t="s" s="46">
-        <v>44</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49">
-        <f>SUM(G32:G35)</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="37" ht="20.35" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="58"/>
-    </row>
-    <row r="38" ht="21.35" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
-    </row>
-    <row r="39" ht="24.4" customHeight="1">
-      <c r="A39" s="62"/>
-      <c r="B39" t="s" s="63">
-        <v>45</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="65">
-        <f>SUM(G36,G29,G19)</f>
+    <row r="39" ht="20.7" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" t="s" s="46">
+        <v>48</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49">
+        <f>SUM(G32:G38)</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="40" ht="20.35" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="59"/>
+    </row>
+    <row r="41" ht="21.35" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="62"/>
+    </row>
+    <row r="42" ht="24.4" customHeight="1">
+      <c r="A42" s="63"/>
+      <c r="B42" t="s" s="64">
+        <v>49</v>
+      </c>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66">
+        <f>SUM(G39,G29,G19)</f>
         <v>4900</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -2769,21 +2823,24 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
